--- a/files/Mathematical_Perturbation_Functions.xlsx
+++ b/files/Mathematical_Perturbation_Functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roadm\Desktop\Attacks\roadmap.github.io\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A959CF6B-4E12-4882-B980-6009280A8097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A672C9A8-AB3E-4A0C-9C3F-499AA79BBCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="420" windowWidth="25440" windowHeight="15990" xr2:uid="{3901D594-EE58-4F90-AAE3-6A55C4FD8F6C}"/>
   </bookViews>
@@ -1819,16 +1819,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1840,23 +1840,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2174,9 +2174,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2305050</xdr:colOff>
+      <xdr:colOff>2301240</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>65970</xdr:rowOff>
+      <xdr:rowOff>56445</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2218,9 +2218,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2158365</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>320452</xdr:rowOff>
+      <xdr:colOff>2154555</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>412</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2262,9 +2262,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2186940</xdr:colOff>
+      <xdr:colOff>2190750</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>440282</xdr:rowOff>
+      <xdr:rowOff>436472</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2306,9 +2306,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2034540</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>193741</xdr:rowOff>
+      <xdr:colOff>2038350</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>3241</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2643,8 +2643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C33D264-A0DC-4CE6-ADE2-1E6C1A81D9B1}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2672,12 +2672,12 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2702,13 +2702,13 @@
       <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="19"/>
     </row>
-    <row r="7" spans="1:3" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2746,18 +2746,18 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="17"/>
     </row>
-    <row r="12" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>12</v>
       </c>
@@ -2802,7 +2802,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
@@ -2817,16 +2817,16 @@
       <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="13"/>
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="25"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
@@ -2835,16 +2835,16 @@
       <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="13"/>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="14"/>
       <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="21"/>
+      <c r="C20" s="25"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
@@ -2853,16 +2853,16 @@
       <c r="B21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="13"/>
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="14"/>
       <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="15"/>
+      <c r="C22" s="23"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
@@ -2871,12 +2871,12 @@
       <c r="B23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="13"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
@@ -2889,32 +2889,32 @@
       <c r="B25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="24"/>
+      <c r="C25" s="20"/>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="13"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="25"/>
-    </row>
-    <row r="27" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C26" s="21"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>18</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="24"/>
-    </row>
-    <row r="28" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="13"/>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="14"/>
       <c r="B28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="25"/>
-    </row>
-    <row r="29" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="21"/>
+    </row>
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>19</v>
       </c>
@@ -2932,25 +2932,25 @@
       <c r="B30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="23"/>
+      <c r="C31" s="16"/>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="13"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C32" s="17"/>
     </row>
-    <row r="33" spans="1:3" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>21</v>
       </c>
@@ -2968,7 +2968,7 @@
       </c>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:3" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>23</v>
       </c>
@@ -2986,8 +2986,8 @@
       </c>
       <c r="C36" s="18"/>
     </row>
-    <row r="37" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="13"/>
+    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="14"/>
       <c r="B37" s="2" t="s">
         <v>52</v>
       </c>
@@ -2995,16 +2995,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C27:C28"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="A2:A3"/>
@@ -3018,8 +3008,18 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C27:C28"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/files/Mathematical_Perturbation_Functions.xlsx
+++ b/files/Mathematical_Perturbation_Functions.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roadm\Desktop\Attacks\roadmap.github.io\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A672C9A8-AB3E-4A0C-9C3F-499AA79BBCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097C4345-DB2C-42F5-B707-1C8A14281C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="420" windowWidth="25440" windowHeight="15990" xr2:uid="{3901D594-EE58-4F90-AAE3-6A55C4FD8F6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$H$9</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1879,15 +1882,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1409227</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>342900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1940,15 +1943,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1651626</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2001,15 +2004,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2095499</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2062,15 +2065,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>16584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>3048000</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>221655</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2123,15 +2126,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>62867</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>914401</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>149069</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2167,16 +2170,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2301240</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>56445</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2305050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>60255</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2211,15 +2214,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2154555</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2150745</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>412</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2255,16 +2258,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2190750</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>436472</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2186940</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>440282</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2299,15 +2302,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>78105</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>86328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2038350</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2034540</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>3241</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2641,383 +2644,384 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C33D264-A0DC-4CE6-ADE2-1E6C1A81D9B1}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="B1:D38"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.109375" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" customWidth="1"/>
-    <col min="3" max="3" width="59.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" customWidth="1"/>
+    <col min="3" max="3" width="34.109375" customWidth="1"/>
+    <col min="4" max="4" width="59.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D3" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
-      <c r="B3" s="2" t="s">
+    <row r="4" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="14"/>
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="17"/>
-    </row>
-    <row r="4" spans="1:3" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="18"/>
-    </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="14"/>
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="19"/>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+    <row r="9" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="12">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
-      <c r="B11" s="2" t="s">
+    <row r="12" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="14"/>
+      <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="17"/>
-    </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
+    <row r="14" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+    <row r="15" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="12">
         <v>12</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
-      <c r="B16" s="2" t="s">
+    <row r="17" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="14"/>
+      <c r="C17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="12">
         <v>13</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="D18" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="14"/>
-      <c r="B18" s="2" t="s">
+    <row r="19" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="14"/>
+      <c r="C19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="25"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+      <c r="D19" s="25"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="12">
         <v>14</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="D20" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="14"/>
-      <c r="B20" s="2" t="s">
+    <row r="21" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="14"/>
+      <c r="C21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="25"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
+      <c r="D21" s="25"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="12">
         <v>15</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="D22" s="22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="14"/>
-      <c r="B22" s="2" t="s">
+    <row r="23" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="14"/>
+      <c r="C23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="23"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
+      <c r="D23" s="23"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="12">
         <v>16</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="D24" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="14"/>
-      <c r="B24" s="2" t="s">
+    <row r="25" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="14"/>
+      <c r="C25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="17"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="12">
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="12">
         <v>17</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="20"/>
-    </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="14"/>
-      <c r="B26" s="2" t="s">
+      <c r="D26" s="20"/>
+    </row>
+    <row r="27" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="14"/>
+      <c r="C27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="21"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="12">
         <v>18</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="20"/>
-    </row>
-    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="14"/>
-      <c r="B28" s="2" t="s">
+      <c r="D28" s="20"/>
+    </row>
+    <row r="29" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="14"/>
+      <c r="C29" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="21"/>
-    </row>
-    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="3">
         <v>19</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="12">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="12">
         <v>20</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="D31" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="13"/>
+      <c r="C32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="16"/>
-    </row>
-    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="14"/>
-      <c r="B32" s="2" t="s">
+      <c r="D32" s="16"/>
+    </row>
+    <row r="33" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="14"/>
+      <c r="C33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="17"/>
-    </row>
-    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
+      <c r="D33" s="17"/>
+    </row>
+    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="3">
         <v>21</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="9"/>
-    </row>
-    <row r="34" spans="1:3" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="2:4" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="3">
         <v>22</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="3">
         <v>23</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="9"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="12">
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="12">
         <v>24</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="18"/>
-    </row>
-    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="14"/>
-      <c r="B37" s="2" t="s">
+      <c r="D37" s="18"/>
+    </row>
+    <row r="38" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="14"/>
+      <c r="C38" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="19"/>
+      <c r="D38" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D28:D29"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
